--- a/biology/Histoire de la zoologie et de la botanique/François_Marie_Daudin/François_Marie_Daudin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Marie_Daudin/François_Marie_Daudin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Marie_Daudin</t>
+          <t>François_Marie_Daudin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Marie Daudin est un zoologiste français, né le 29 août 1776 à Paris et mort le 30 novembre 1803 à Paris. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Marie_Daudin</t>
+          <t>François_Marie_Daudin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était fils de François Daudin (1746-1811), seigneur de Pouilly, conseiller-correcteur de la Chambre des comptes de Paris, et de Marie Madeleine Louise Escallard de la Bellengerie (1754-1790).
 Une maladie qu'il contracta dans l'enfance le paralysa des membres inférieurs. Il pouvait néanmoins observer sur le terrain; il commença à collectionner tout en étudiant la physiologie et l'histoire naturelle, mais il finit par se consacrer à cette dernière.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Marie_Daudin</t>
+          <t>François_Marie_Daudin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1800] Traité élémentaire et complet d'ornithologie, ou Histoire naturelle des oiseaux (2 vol. : vol. 1, 474 p. et vol. 2, 473 p.), Paris, impr. Bertrandet, 1800, sur biodiversitylibrary.org. Voir les gravures de ce livre dans la catégorie Traité élémentaire et complet d'ornithologie…  sur Commons.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Traité élémentaire et complet d'ornithologie, ou Histoire naturelle des oiseaux (2 vol. : vol. 1, 474 p. et vol. 2, 473 p.), Paris, impr. Bertrandet, 1800, sur biodiversitylibrary.org. Voir les gravures de ce livre dans la catégorie Traité élémentaire et complet d'ornithologie…  sur Commons.
 [1801-1803] Histoire naturelle, générale et particulière, des Reptiles  (ill. Jacques de Sève) (8 tomes (t. 85 à 92 ou t. 93 à 100 ? dans la série Histoire naturelle, générale et particulière de Buffon), dont t. 1, an X (1801-1802), 384 p. ; t. 2, an X, 432 p. ; t. 3, an X, 452 p. ; t. 4, an X, 397 p. ; t. 5, an XI (1802-1803), 365 p. ; t. 6, an XI, 447 p. ; t. 7, an XI, 436 p. ; t. 8, an XI, 439 p.), Paris, impr. F. Dufart, an x-xi, sur biodiversitylibrary.org. Voir les gravures de ce livre dans la catégorie Histoire naturelle, générale et particulière, des reptiles  sur Commons.
-[1803] Histoire naturelle des Rainettes, des Grenouilles et des Crapauds…  (ill. Jacques Barraband), Paris, impr. Bertrandet, libr. Levrault, an xi (1802 ou 1803), 38 pl. + 108, sur biodiversitylibrary.org (lire en ligne).</t>
+ Histoire naturelle des Rainettes, des Grenouilles et des Crapauds…  (ill. Jacques Barraband), Paris, impr. Bertrandet, libr. Levrault, an xi (1802 ou 1803), 38 pl. + 108, sur biodiversitylibrary.org (lire en ligne).</t>
         </is>
       </c>
     </row>
